--- a/user.xlsx
+++ b/user.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,351 +390,287 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4313</v>
+        <v>7834.599999999999</v>
       </c>
       <c r="B2" t="str">
-        <v>0x4f78e3fe7ded1a47acb3030a661505ae5cbecdf1</v>
+        <v>0xc5fe458c0b6693ea253950eb801fff0c38372799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3703.2</v>
+        <v>2301.582</v>
       </c>
       <c r="B3" t="str">
-        <v>0xc8567c98641935af4299e951dff6af8b1eb6e0be</v>
+        <v>0x327761030cc23e11a66766620086b23fad0b50ba</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>41160</v>
+        <v>271.56216564</v>
       </c>
       <c r="B4" t="str">
-        <v>0xefa6ed13a6dcfd10575896a6f8cd54ef80094ec4</v>
+        <v>0x866310254c6a24cfcb916fb7f1e8aeebe3caf1d5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>45689.00000000001</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="str">
-        <v>0x2e422b54aeabdc90f76b535a921ec6fad35ebadb</v>
+        <v>0xd2c363e465359bbe9db5f76e071bdbe5a8a204b4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2208</v>
+        <v>5480.00218</v>
       </c>
       <c r="B6" t="str">
-        <v>0x8fe39acfd2a1299a4783e3a82626179db2acaf4c</v>
+        <v>0x59c0d51b8cff874804623b74ce22ac326c1579d4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5000</v>
+        <v>1182.8912</v>
       </c>
       <c r="B7" t="str">
-        <v>0xa80743c9c31f8ae414ab2327d28682c27c8931ce</v>
+        <v>0x331bed5f1d2988e1eff3393e316b2f92e30fe6a4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4409.6</v>
+        <v>17780</v>
       </c>
       <c r="B8" t="str">
-        <v>0xcd946ab94153c48cb8d5bf91622f3457a9a62171</v>
+        <v>0x17ed642d39b5200b69d37d6f7cbc441fd006e088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>36743.23602</v>
+        <v>12220.088</v>
       </c>
       <c r="B9" t="str">
-        <v>0xcc6dede4db66d267469050de52a8bbaea9fcbb65</v>
+        <v>0xac31e7b7f7780687278e1cf33dbdf874e560db77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3913.34</v>
+        <v>2204.8</v>
       </c>
       <c r="B10" t="str">
-        <v>0xc537ed52627711d5dd2a2c1b7408019aae777649</v>
+        <v>0xf23eff225aa563820d691d4b23731d4d4c261b4f</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1000</v>
+        <v>639</v>
       </c>
       <c r="B11" t="str">
-        <v>0x0b64b03223a138bb826420947515f087493d69c6</v>
+        <v>0x7b2e341e258e92f1af7b68239ad0653a53dbf4dc</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1293.616</v>
+        <v>1690.33</v>
       </c>
       <c r="B12" t="str">
-        <v>0x8152b151520a565b8cda28957eb0aec88c09edf1</v>
+        <v>0x043fac6e36511c21d1bd3be1f38051d6606e741c</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>28129.009</v>
+        <v>6292</v>
       </c>
       <c r="B13" t="str">
-        <v>0xa12431d0b9db640034b0cdfceef9cce161e62be4</v>
+        <v>0xd279b48e3a975ac4d3747b65a47927e5ae06f0bf</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0</v>
+        <v>2143919.03825929</v>
       </c>
       <c r="B14" t="str">
-        <v>0xb1d9503e2cf20d005a6334749ee4534e4041f494</v>
+        <v>0xe5a138db8746c9b7689d27664fbff8382d7e2412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1789.816</v>
+        <v>17099</v>
       </c>
       <c r="B15" t="str">
-        <v>0x039f79c54189b974021526a1e79fbaca13e19d86</v>
+        <v>0xe4ea60f546e3a758719c96ebe29900c92f56bca5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1988</v>
+        <v>1979.908</v>
       </c>
       <c r="B16" t="str">
-        <v>0x401d7a61e714f005564cd583034e50df9a2eef74</v>
+        <v>0x91d81cbde046da95ff3c3258253a6f5e83a74869</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>6001.393</v>
+        <v>44</v>
       </c>
       <c r="B17" t="str">
-        <v>0x114e771cf470768fa4755ea93d0f9a750b1df37e</v>
+        <v>0x623e0e2cc6d3cb15c9a256f9c1380e3c439d12fe</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>15000</v>
+        <v>3406.4</v>
       </c>
       <c r="B18" t="str">
-        <v>0xb4c5bb92c4146cc64d7e594e0345eb2e5f6c886b</v>
+        <v>0xc6c9e137d4be8f02eec85991613f72144412cdfc</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2062.174</v>
+        <v>8534808.8389186</v>
       </c>
       <c r="B19" t="str">
-        <v>0xe04b31f0acecf8023dcd56aa2875d3207bbd5861</v>
+        <v>0x6cc5f688a315f3dc28a7781717a9a798a59fda7b</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>440</v>
+        <v>3955.9175999999998</v>
       </c>
       <c r="B20" t="str">
-        <v>0x4b449280f22ca54c13c6886b9d0fb7b1f71dad8f</v>
+        <v>0x59a5208b32e627891c389ebafc644145224006e8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20</v>
+        <v>439.64120558</v>
       </c>
       <c r="B21" t="str">
-        <v>0x4b55978a06751c85c8cf0035daa52bfac35d90ce</v>
+        <v>0x34c67d045a2870501deeb81e08e5f9f3a50b72cf</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>6703</v>
+        <v>270</v>
       </c>
       <c r="B22" t="str">
-        <v>0x31a3ac20a90e5043d66448bca69ff077100af2bc</v>
+        <v>0x96b8885cfa40a7054914206d116e81f1b5929254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2679.0000000000005</v>
+        <v>5107</v>
       </c>
       <c r="B23" t="str">
-        <v>0xe4eb0247d1ab8c16b05bdeb5ea48f9ea30958faa</v>
+        <v>0x657693bbf1c1430ebec35a0e223139e088b5a887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>151.50634</v>
+        <v>3132.289</v>
       </c>
       <c r="B24" t="str">
-        <v>0xcdb6c4882947cc6641829f54dea40393e65b0b8e</v>
+        <v>0xed1288ec0009ad50144648bc68ee9bbd7d2b5101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>300</v>
+        <v>8992.03306</v>
       </c>
       <c r="B25" t="str">
-        <v>0x0f946db0cbad949958226bdbcc51d4b8313ab58e</v>
+        <v>0x5fab18575c406c0c0b335c43ca08325000f91606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>300</v>
+        <v>188.131</v>
       </c>
       <c r="B26" t="str">
-        <v>0xf66cae345071c62206f00300ea739bdd1dfd5958</v>
+        <v>0x7d6925a1d1c501fa90cbd143ca2eef70222e06c2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2250</v>
+        <v>5000</v>
       </c>
       <c r="B27" t="str">
-        <v>0xe7f2ccfdb0d081161c3cc0323289c09f089fb9d4</v>
+        <v>0x114e771cf470768fa4755ea93d0f9a750b1df37e</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>230.01</v>
+        <v>10042.23</v>
       </c>
       <c r="B28" t="str">
-        <v>0x2b3c4e5fcf4cd75849a6192f7e3359cce0973fd0</v>
+        <v>0xaf9d4b1b0b7cce170c769b198fbfd58cfc80db98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="B29" t="str">
-        <v>0x3a73764e66e82a05fac9628a12539beeff263c0b</v>
+        <v>0x7fcb00345424d3deeadbc3e572f134adc56d97aa</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>18885.76</v>
+        <v>0.000000000000000001</v>
       </c>
       <c r="B30" t="str">
-        <v>0x2c970ed3a230608c4ae19e9b0075ab34da967da7</v>
+        <v>0xb4c5bb92c4146cc64d7e594e0345eb2e5f6c886b</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>142.988</v>
+        <v>2161.2999999999997</v>
       </c>
       <c r="B31" t="str">
-        <v>0x94ccb38acffd89286297608dadb37884e6923a90</v>
+        <v>0xbc2910171e694af2f1589c01a43d627c436d1693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>694</v>
+        <v>50.5</v>
       </c>
       <c r="B32" t="str">
-        <v>0xff5e138b715072d8111164d8028a30148954cfeb</v>
+        <v>0xb4d0a1517311ca6d1c0ee581a0b74c970c79db5e</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>1083</v>
+        <v>150</v>
       </c>
       <c r="B33" t="str">
-        <v>0x8d47c17e9f5bf5a26da1054967c58766d269d2ad</v>
+        <v>0x907488283cccf827bed92c822a4bf0b28ac71063</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>80</v>
+        <v>1102</v>
       </c>
       <c r="B34" t="str">
-        <v>0xeb29c85aa1b625a9e6ec83609e7d6886c999ccf5</v>
+        <v>0xa4b2ea3570ca4dbde7c7969ecf0c4ed8b88f168e</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>6079.429999999999</v>
+        <v>1252</v>
       </c>
       <c r="B35" t="str">
-        <v>0xae52fca994f1d9d5019da67cd92da52f53d2d315</v>
+        <v>0x4bf3f3582d7e728207b432006a1e460915d4322f</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>806</v>
+        <v>6445</v>
       </c>
       <c r="B36" t="str">
-        <v>0xe1e15d0021004c6933089624667b867713122ee3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>4197.8614</v>
-      </c>
-      <c r="B37" t="str">
-        <v>0x551f0e400e591a97efc67ccb5571d44b1f3bfbb2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>83688</v>
-      </c>
-      <c r="B38" t="str">
-        <v>0x13dcd33d02095f797c0a15338946aff24103251f</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>7572</v>
-      </c>
-      <c r="B39" t="str">
-        <v>0xac17da5ae8541c3e459133d543da7c792ff6c6aa</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>0</v>
-      </c>
-      <c r="B40" t="str">
-        <v>0x2fb05c57ce23d063992f6a8c54d0f3a005154d1a</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>4300</v>
-      </c>
-      <c r="B41" t="str">
-        <v>0x4a2c8060fa12ebce66def3292de99e2e5f7c510a</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>12437.43244</v>
-      </c>
-      <c r="B42" t="str">
-        <v>0x55892012b7075d98a94e086e3d2f72532f3aca6d</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>14023</v>
-      </c>
-      <c r="B43" t="str">
-        <v>0x8019a7cecea4414e6139c5902cc6bf5e311d1cac</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>9894.09208</v>
-      </c>
-      <c r="B44" t="str">
-        <v>0xcfd015dc547338b4f244bdc7b36af2416840fd12</v>
+        <v>0xbe65e7b6f33bd6bbf9964e56fefc39b0b08a27f3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user.xlsx
+++ b/user.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,287 +390,159 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>7834.599999999999</v>
+        <v>3300</v>
       </c>
       <c r="B2" t="str">
-        <v>0xc5fe458c0b6693ea253950eb801fff0c38372799</v>
+        <v>0xa1f622910da097546150c9bacb1907fbaf0e5a13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2301.582</v>
+        <v>2152529.3682592902</v>
       </c>
       <c r="B3" t="str">
-        <v>0x327761030cc23e11a66766620086b23fad0b50ba</v>
+        <v>0xe5a138db8746c9b7689d27664fbff8382d7e2412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>271.56216564</v>
+        <v>7530.94</v>
       </c>
       <c r="B4" t="str">
-        <v>0x866310254c6a24cfcb916fb7f1e8aeebe3caf1d5</v>
+        <v>0x90471fad49415884e7b7e513f2071f7727b672c0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2001</v>
+        <v>2010.6</v>
       </c>
       <c r="B5" t="str">
-        <v>0xd2c363e465359bbe9db5f76e071bdbe5a8a204b4</v>
+        <v>0xa06abb7d2378db58bce8fb07b06fa91a986e639e</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5480.00218</v>
+        <v>2161.2999999999997</v>
       </c>
       <c r="B6" t="str">
-        <v>0x59c0d51b8cff874804623b74ce22ac326c1579d4</v>
+        <v>0xf1bab98d692ace4042a561c9a22e05e55d5c77a4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1182.8912</v>
+        <v>34</v>
       </c>
       <c r="B7" t="str">
-        <v>0x331bed5f1d2988e1eff3393e316b2f92e30fe6a4</v>
+        <v>0x4e177f5068b1374902e70efe1f2e8712d725b295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>17780</v>
+        <v>4159.2</v>
       </c>
       <c r="B8" t="str">
-        <v>0x17ed642d39b5200b69d37d6f7cbc441fd006e088</v>
+        <v>0xc6c9e137d4be8f02eec85991613f72144412cdfc</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>12220.088</v>
+        <v>8545000.9538186</v>
       </c>
       <c r="B9" t="str">
-        <v>0xac31e7b7f7780687278e1cf33dbdf874e560db77</v>
+        <v>0x6cc5f688a315f3dc28a7781717a9a798a59fda7b</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2204.8</v>
+        <v>160.309</v>
       </c>
       <c r="B10" t="str">
-        <v>0xf23eff225aa563820d691d4b23731d4d4c261b4f</v>
+        <v>0x441511cf79bbd48d047fcff48f6c291ea11d6298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>639</v>
+        <v>3382</v>
       </c>
       <c r="B11" t="str">
-        <v>0x7b2e341e258e92f1af7b68239ad0653a53dbf4dc</v>
+        <v>0x6761e986e7bad753aa74b0f8b4d806d61945c009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1690.33</v>
+        <v>4594</v>
       </c>
       <c r="B12" t="str">
-        <v>0x043fac6e36511c21d1bd3be1f38051d6606e741c</v>
+        <v>0xd29cd5a2ab9e476c0f50728c2e765c5a0c459fa6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>6292</v>
+        <v>1000</v>
       </c>
       <c r="B13" t="str">
-        <v>0xd279b48e3a975ac4d3747b65a47927e5ae06f0bf</v>
+        <v>0x0490b018ddf22c16690ff5de9dd520de90088148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2143919.03825929</v>
+        <v>4361.9176</v>
       </c>
       <c r="B14" t="str">
-        <v>0xe5a138db8746c9b7689d27664fbff8382d7e2412</v>
+        <v>0x59a5208b32e627891c389ebafc644145224006e8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>17099</v>
+        <v>1117.368</v>
       </c>
       <c r="B15" t="str">
-        <v>0xe4ea60f546e3a758719c96ebe29900c92f56bca5</v>
+        <v>0x1b1367a8b903216624e8694695134df3ff5f43e5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1979.908</v>
+        <v>3244</v>
       </c>
       <c r="B16" t="str">
-        <v>0x91d81cbde046da95ff3c3258253a6f5e83a74869</v>
+        <v>0x6179d76db2f0dc582a8070096d4174f3c6c54153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>44</v>
+        <v>4944</v>
       </c>
       <c r="B17" t="str">
-        <v>0x623e0e2cc6d3cb15c9a256f9c1380e3c439d12fe</v>
+        <v>0x9f648ae215f81beb81f88b41485612262e2ff7b0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3406.4</v>
+        <v>571.95644</v>
       </c>
       <c r="B18" t="str">
-        <v>0xc6c9e137d4be8f02eec85991613f72144412cdfc</v>
+        <v>0x811051a80708ec14600c476a623980ada3e6514a</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>8534808.8389186</v>
+        <v>2204</v>
       </c>
       <c r="B19" t="str">
-        <v>0x6cc5f688a315f3dc28a7781717a9a798a59fda7b</v>
+        <v>0xb55f1a84d76aebfefeb491043c568b2bb586772c</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>3955.9175999999998</v>
+        <v>198</v>
       </c>
       <c r="B20" t="str">
-        <v>0x59a5208b32e627891c389ebafc644145224006e8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>439.64120558</v>
-      </c>
-      <c r="B21" t="str">
-        <v>0x34c67d045a2870501deeb81e08e5f9f3a50b72cf</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>270</v>
-      </c>
-      <c r="B22" t="str">
-        <v>0x96b8885cfa40a7054914206d116e81f1b5929254</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>5107</v>
-      </c>
-      <c r="B23" t="str">
-        <v>0x657693bbf1c1430ebec35a0e223139e088b5a887</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>3132.289</v>
-      </c>
-      <c r="B24" t="str">
-        <v>0xed1288ec0009ad50144648bc68ee9bbd7d2b5101</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>8992.03306</v>
-      </c>
-      <c r="B25" t="str">
-        <v>0x5fab18575c406c0c0b335c43ca08325000f91606</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>188.131</v>
-      </c>
-      <c r="B26" t="str">
-        <v>0x7d6925a1d1c501fa90cbd143ca2eef70222e06c2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>5000</v>
-      </c>
-      <c r="B27" t="str">
-        <v>0x114e771cf470768fa4755ea93d0f9a750b1df37e</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>10042.23</v>
-      </c>
-      <c r="B28" t="str">
-        <v>0xaf9d4b1b0b7cce170c769b198fbfd58cfc80db98</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>0</v>
-      </c>
-      <c r="B29" t="str">
-        <v>0x7fcb00345424d3deeadbc3e572f134adc56d97aa</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>0.000000000000000001</v>
-      </c>
-      <c r="B30" t="str">
-        <v>0xb4c5bb92c4146cc64d7e594e0345eb2e5f6c886b</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2161.2999999999997</v>
-      </c>
-      <c r="B31" t="str">
-        <v>0xbc2910171e694af2f1589c01a43d627c436d1693</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>50.5</v>
-      </c>
-      <c r="B32" t="str">
-        <v>0xb4d0a1517311ca6d1c0ee581a0b74c970c79db5e</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>150</v>
-      </c>
-      <c r="B33" t="str">
-        <v>0x907488283cccf827bed92c822a4bf0b28ac71063</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>1102</v>
-      </c>
-      <c r="B34" t="str">
-        <v>0xa4b2ea3570ca4dbde7c7969ecf0c4ed8b88f168e</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>1252</v>
-      </c>
-      <c r="B35" t="str">
-        <v>0x4bf3f3582d7e728207b432006a1e460915d4322f</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>6445</v>
-      </c>
-      <c r="B36" t="str">
-        <v>0xbe65e7b6f33bd6bbf9964e56fefc39b0b08a27f3</v>
+        <v>0x5248bcc3337422b6f76595449d277442eae0c8ea</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B20"/>
   </ignoredErrors>
 </worksheet>
 </file>